--- a/outputs-r202/test-g__UBA1711.xlsx
+++ b/outputs-r202/test-g__UBA1711.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
   <si>
     <t>Row</t>
   </si>
@@ -235,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,14 +245,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,3275 +315,3275 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="C2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="D2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="E2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="F2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="G2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="H2">
-        <v>1.2503123223854992e-06</v>
+        <v>5.7357215253253479e-07</v>
       </c>
       <c r="I2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="J2">
-        <v>2.2380683096443264e-10</v>
+        <v>1.2844573978822011e-08</v>
       </c>
       <c r="K2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="L2">
-        <v>0.99188601110812147</v>
+        <v>0.99969349016761289</v>
       </c>
       <c r="M2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="N2">
-        <v>2.08888707974586e-05</v>
+        <v>1.0310945924164944e-05</v>
       </c>
       <c r="O2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="P2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="Q2">
-        <v>0.0080917758714848659</v>
+        <v>0.00017078590940951716</v>
       </c>
       <c r="R2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="S2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.7363135011372588e-06</v>
       </c>
       <c r="T2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="U2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="V2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="W2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="X2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AD2">
-        <v>2.1814826350063958e-09</v>
+        <v>3.6230750064795204e-06</v>
       </c>
       <c r="AE2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AG2">
-        <v>7.0296309542013821e-08</v>
+        <v>0.00011181903072080498</v>
       </c>
       <c r="AH2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AI2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AJ2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AL2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AM2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AN2">
-        <v>1.1349419785563925e-09</v>
+        <v>6.6481403879222791e-06</v>
       </c>
       <c r="AO2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AP2">
-        <v>2.2202077601409837e-14</v>
+        <v>2.2204294646764715e-14</v>
       </c>
       <c r="AQ2">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="C3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="D3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="E3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="F3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="G3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="H3">
-        <v>6.3867922649648361e-06</v>
+        <v>1.9593554707579946e-05</v>
       </c>
       <c r="I3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="J3">
-        <v>1.2103687153246309e-06</v>
+        <v>5.5760418802576538e-07</v>
       </c>
       <c r="K3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="L3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="M3">
-        <v>0.9990709149659911</v>
+        <v>0.99880196975352342</v>
       </c>
       <c r="N3">
-        <v>8.1293486867528099e-10</v>
+        <v>5.5032747367364577e-11</v>
       </c>
       <c r="O3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="P3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="Q3">
-        <v>5.6598496565325763e-06</v>
+        <v>3.5518061819744613e-07</v>
       </c>
       <c r="R3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="S3">
-        <v>4.279391352098064e-07</v>
+        <v>5.2438859842756736e-08</v>
       </c>
       <c r="T3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="U3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="V3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="W3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="X3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AD3">
-        <v>2.6386190266746678e-07</v>
+        <v>1.1215022793504312e-07</v>
       </c>
       <c r="AE3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AG3">
-        <v>0.00091344577889702265</v>
+        <v>0.0011771619048417314</v>
       </c>
       <c r="AH3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AI3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AJ3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AK3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AL3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AM3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AN3">
-        <v>1.6896297919046524e-06</v>
+        <v>1.9735729004849198e-07</v>
       </c>
       <c r="AO3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AP3">
-        <v>2.2203958717207423e-14</v>
+        <v>2.2203813985908979e-14</v>
       </c>
       <c r="AQ3">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="C4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="D4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="E4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="F4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="G4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="H4">
-        <v>0.0011537035401711134</v>
+        <v>0.00024399463246205583</v>
       </c>
       <c r="I4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="J4">
-        <v>0.0003641899449951853</v>
+        <v>0.00012227718591719034</v>
       </c>
       <c r="K4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="L4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="M4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="N4">
-        <v>0.99448371483190845</v>
+        <v>0.98672895464705657</v>
       </c>
       <c r="O4">
-        <v>0.00036278190488286765</v>
+        <v>0.0040591627406578266</v>
       </c>
       <c r="P4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="Q4">
-        <v>1.2174219733706689e-05</v>
+        <v>4.05071848275148e-06</v>
       </c>
       <c r="R4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="S4">
-        <v>1.9411042894999913e-13</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="T4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="U4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="V4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="W4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="X4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AA4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AB4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AC4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AD4">
-        <v>4.2063892307330691e-06</v>
+        <v>3.8626173692717372e-07</v>
       </c>
       <c r="AE4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AG4">
-        <v>0.0036192288647469858</v>
+        <v>0.0088411738017274179</v>
       </c>
       <c r="AH4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AI4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AJ4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AL4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AM4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AN4">
-        <v>3.0342629555600381e-10</v>
+        <v>1.1226540752661872e-11</v>
       </c>
       <c r="AO4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AP4">
-        <v>2.2202137195239353e-14</v>
+        <v>2.2203116573475675e-14</v>
       </c>
       <c r="AQ4">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="C5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="D5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="E5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="F5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="G5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="H5">
-        <v>0.00046047168954636684</v>
+        <v>8.8633358666689003e-05</v>
       </c>
       <c r="I5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="J5">
-        <v>0.0028150508173232975</v>
+        <v>0.0051339280025215145</v>
       </c>
       <c r="K5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="L5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="M5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="N5">
-        <v>5.6845275041156431e-06</v>
+        <v>2.4331725914712158e-05</v>
       </c>
       <c r="O5">
-        <v>0.99615555788354293</v>
+        <v>0.99456999370776977</v>
       </c>
       <c r="P5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="Q5">
-        <v>2.1484097548355322e-05</v>
+        <v>1.3958117878347276e-06</v>
       </c>
       <c r="R5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="S5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="T5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="U5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="V5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="W5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="X5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="Y5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="Z5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AA5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AB5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AC5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AD5">
-        <v>0.00026931923646291594</v>
+        <v>2.5893556242426818e-05</v>
       </c>
       <c r="AE5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AF5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AG5">
-        <v>0.00027243171007759347</v>
+        <v>0.00015582383314259547</v>
       </c>
       <c r="AH5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AI5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AJ5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AK5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AL5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AM5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AN5">
-        <v>3.7261605383616866e-11</v>
+        <v>3.2216661105674772e-12</v>
       </c>
       <c r="AO5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AP5">
-        <v>2.220240229404343e-14</v>
+        <v>2.2202096610565915e-14</v>
       </c>
       <c r="AQ5">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="C6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="D6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="E6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="F6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="G6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="H6">
-        <v>0.00021502520886012555</v>
+        <v>2.9859267802497144e-05</v>
       </c>
       <c r="I6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="J6">
-        <v>0.00087800698350469616</v>
+        <v>0.00039416526131004026</v>
       </c>
       <c r="K6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="L6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="M6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="N6">
-        <v>2.8989899701215335e-06</v>
+        <v>9.6542777005676733e-09</v>
       </c>
       <c r="O6">
-        <v>2.8106858614927634e-06</v>
+        <v>2.542499592287588e-06</v>
       </c>
       <c r="P6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="Q6">
-        <v>0.00061299919949208022</v>
+        <v>3.9193673345108575e-05</v>
       </c>
       <c r="R6">
-        <v>0.9973264823041913</v>
+        <v>0.99638571556787114</v>
       </c>
       <c r="S6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="T6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="U6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="V6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="W6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="X6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="Y6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="Z6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AB6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AC6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AD6">
-        <v>3.6640964826215532e-05</v>
+        <v>4.8950766441995994e-05</v>
       </c>
       <c r="AE6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AF6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AG6">
-        <v>0.00092512914468661188</v>
+        <v>0.0030995631982850356</v>
       </c>
       <c r="AH6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AI6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AJ6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AK6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AL6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AM6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AN6">
-        <v>6.5178969453594525e-09</v>
+        <v>1.1036371306840718e-10</v>
       </c>
       <c r="AO6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AP6">
-        <v>2.2203024120728552e-14</v>
+        <v>2.2202524150681211e-14</v>
       </c>
       <c r="AQ6">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.120514631727894e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="C7">
-        <v>4.120514631727894e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="D7">
-        <v>4.120514631727887e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="E7">
-        <v>4.1205146317278668e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="F7">
-        <v>4.1205146317278839e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="G7">
-        <v>4.1205146317278668e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="H7">
-        <v>0.0024216553080511796</v>
+        <v>0.0029515922264348729</v>
       </c>
       <c r="I7">
-        <v>4.1205146317278681e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="J7">
-        <v>0.00403790476317532</v>
+        <v>0.0023181143767353257</v>
       </c>
       <c r="K7">
-        <v>4.1205146317278712e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="L7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="M7">
-        <v>4.1205146317278712e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="N7">
-        <v>1.7780977750501871e-08</v>
+        <v>7.7510484788538026e-09</v>
       </c>
       <c r="O7">
-        <v>4.1205146317278712e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="P7">
-        <v>4.1205146317278712e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="Q7">
-        <v>0.99267757581116933</v>
+        <v>0.99469607020036155</v>
       </c>
       <c r="R7">
-        <v>4.1205146317278712e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="S7">
-        <v>1.1523542033079428e-07</v>
+        <v>1.7227136063846067e-11</v>
       </c>
       <c r="T7">
-        <v>4.1205146317278693e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="U7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="V7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="W7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="X7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="Y7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="Z7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AA7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AB7">
-        <v>4.1205146317278895e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AC7">
-        <v>4.1205146317278693e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AD7">
-        <v>7.8954851017420559e-05</v>
+        <v>5.5924833616124306e-06</v>
       </c>
       <c r="AE7">
-        <v>4.1205146317278693e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AF7">
-        <v>4.1205146317278693e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AG7">
-        <v>1.1339027243994096e-07</v>
+        <v>9.141342590584415e-07</v>
       </c>
       <c r="AH7">
-        <v>4.1205146317278693e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AI7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AJ7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AK7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AL7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AM7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AN7">
-        <v>0.00078366285855660197</v>
+        <v>2.770880983942738e-05</v>
       </c>
       <c r="AO7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AP7">
-        <v>4.1205146317278914e-14</v>
+        <v>2.220215091155591e-14</v>
       </c>
       <c r="AQ7">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="C8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="D8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="E8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="F8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="G8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="H8">
-        <v>2.8096882565449837e-05</v>
+        <v>5.7307963709014962e-10</v>
       </c>
       <c r="I8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="J8">
-        <v>0.0085104309465006585</v>
+        <v>0.0032414228446665354</v>
       </c>
       <c r="K8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="L8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="M8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="N8">
-        <v>9.8970260016208024e-08</v>
+        <v>9.8872069006337971e-07</v>
       </c>
       <c r="O8">
-        <v>2.2202318096889463e-14</v>
+        <v>1.5405041756560028e-12</v>
       </c>
       <c r="P8">
-        <v>0.99049233043720741</v>
+        <v>0.99396677837406655</v>
       </c>
       <c r="Q8">
-        <v>0.0002948772217716872</v>
+        <v>3.7353417849032183e-05</v>
       </c>
       <c r="R8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="S8">
-        <v>4.5802504526038118e-10</v>
+        <v>3.065477251939131e-10</v>
       </c>
       <c r="T8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="U8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="V8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="W8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="X8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AC8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AD8">
-        <v>0.00014196976337499062</v>
+        <v>0.00090545860753154237</v>
       </c>
       <c r="AE8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AF8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AG8">
-        <v>0.00042790141601248266</v>
+        <v>0.0003405608860018801</v>
       </c>
       <c r="AH8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AI8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AJ8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AK8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AL8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AM8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AN8">
-        <v>0.00010429390357164645</v>
+        <v>0.0015074362673381952</v>
       </c>
       <c r="AO8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AP8">
-        <v>2.2202318096889463e-14</v>
+        <v>2.2202432859911061e-14</v>
       </c>
       <c r="AQ8">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.0379509978624437e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="C9">
-        <v>3.0379509978624437e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="D9">
-        <v>3.0379509978624412e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="E9">
-        <v>3.0379509978624235e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="F9">
-        <v>3.0379509978624292e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="G9">
-        <v>3.037950997862426e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="H9">
-        <v>0.00041246038627797029</v>
+        <v>0.0031961175080092619</v>
       </c>
       <c r="I9">
-        <v>3.0379509978624323e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="J9">
-        <v>6.8699593271851568e-05</v>
+        <v>0.0020791379391404516</v>
       </c>
       <c r="K9">
-        <v>3.037950997862426e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="L9">
-        <v>3.0379509978624323e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="M9">
-        <v>3.037950997862426e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="N9">
-        <v>8.5693223929440076e-07</v>
+        <v>8.7038524636381385e-09</v>
       </c>
       <c r="O9">
-        <v>3.0379509978651971e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="P9">
-        <v>3.037950997862426e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="Q9">
-        <v>0.99948800794667358</v>
+        <v>0.99469360633359361</v>
       </c>
       <c r="R9">
-        <v>3.037950997862426e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="S9">
-        <v>9.3326923539959269e-08</v>
+        <v>2.4930449085106987e-11</v>
       </c>
       <c r="T9">
-        <v>3.037950997862438e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="U9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="V9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="W9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="X9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="Y9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="Z9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AA9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AB9">
-        <v>3.0379509978624462e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AC9">
-        <v>3.037950997862438e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AD9">
-        <v>5.176936910559061e-06</v>
+        <v>5.8943145046999479e-06</v>
       </c>
       <c r="AE9">
-        <v>3.037950997862438e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AF9">
-        <v>3.037950997862438e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AG9">
-        <v>1.883810350577863e-05</v>
+        <v>8.9783155839119531e-07</v>
       </c>
       <c r="AH9">
-        <v>3.037950997862438e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AI9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AJ9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AK9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AL9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AM9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AN9">
-        <v>5.8667731939473157e-06</v>
+        <v>2.4337343678166056e-05</v>
       </c>
       <c r="AO9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AP9">
-        <v>3.0379509978624405e-14</v>
+        <v>2.220212841834475e-14</v>
       </c>
       <c r="AQ9">
         <v>16</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="C10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="D10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="E10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="F10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="G10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="H10">
-        <v>0.0029536206828917663</v>
+        <v>1.918993892754011e-05</v>
       </c>
       <c r="I10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="J10">
-        <v>0.00049973366045405595</v>
+        <v>0.00040774843404524298</v>
       </c>
       <c r="K10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="L10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="M10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="N10">
-        <v>3.9436531213693552e-08</v>
+        <v>1.2230876388112241e-08</v>
       </c>
       <c r="O10">
-        <v>1.9782637766571867e-07</v>
+        <v>1.0826233643877292e-05</v>
       </c>
       <c r="P10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="Q10">
-        <v>5.9851711127501157e-05</v>
+        <v>5.1457192630536914e-05</v>
       </c>
       <c r="R10">
-        <v>0.99347892296462981</v>
+        <v>0.99803416719229121</v>
       </c>
       <c r="S10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="T10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="U10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="V10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="W10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="X10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="Y10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="Z10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AA10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AB10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AC10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AD10">
-        <v>7.294863098741433e-05</v>
+        <v>3.9739344732252056e-05</v>
       </c>
       <c r="AE10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AF10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AG10">
-        <v>0.0029346849726294014</v>
+        <v>0.0014368592691484643</v>
       </c>
       <c r="AH10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AI10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AJ10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AK10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AL10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AM10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AN10">
-        <v>1.1366085913945271e-10</v>
+        <v>1.6299376031274099e-10</v>
       </c>
       <c r="AO10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AP10">
-        <v>2.2202488920944594e-14</v>
+        <v>2.2203402082904459e-14</v>
       </c>
       <c r="AQ10">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="C11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="E11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="F11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="G11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="H11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="I11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="J11">
-        <v>1.9168433693147037e-12</v>
+        <v>3.2615937129137253e-11</v>
       </c>
       <c r="K11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="L11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="M11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="N11">
-        <v>3.8548039290256774e-07</v>
+        <v>4.7572988656997904e-06</v>
       </c>
       <c r="O11">
-        <v>3.9935646641838126e-09</v>
+        <v>1.6391289349572644e-09</v>
       </c>
       <c r="P11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="Q11">
-        <v>4.7426397286114104e-07</v>
+        <v>0.0014005223244338751</v>
       </c>
       <c r="R11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="S11">
-        <v>8.8430183903550725e-08</v>
+        <v>9.9850068447806446e-08</v>
       </c>
       <c r="T11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="U11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="V11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="W11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="X11">
-        <v>0.99999414019718436</v>
+        <v>0.99822533293256377</v>
       </c>
       <c r="Y11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="Z11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AA11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AB11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AC11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AD11">
-        <v>1.6890452980041537e-06</v>
+        <v>3.9944938227984178e-05</v>
       </c>
       <c r="AE11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AF11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AG11">
-        <v>3.2185867535908763e-06</v>
+        <v>0.00032934098336266291</v>
       </c>
       <c r="AH11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AI11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AJ11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AK11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AL11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AM11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AN11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AO11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AP11">
-        <v>2.2204457319051753e-14</v>
+        <v>2.2203504459509577e-14</v>
       </c>
       <c r="AQ11">
         <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="C12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="D12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="E12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="F12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="G12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="H12">
-        <v>0.0023770130392959717</v>
+        <v>0.0030943819874070491</v>
       </c>
       <c r="I12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="J12">
-        <v>0.00018434443745436074</v>
+        <v>0.0049172018258981055</v>
       </c>
       <c r="K12">
-        <v>2.2251825763311716e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="L12">
-        <v>2.2251825763311716e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="M12">
-        <v>2.2251825763311716e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="N12">
-        <v>4.2020772766965217e-07</v>
+        <v>3.2860754093386016e-09</v>
       </c>
       <c r="O12">
-        <v>1.1643210543327707e-11</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="P12">
-        <v>2.2251825763311716e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="Q12">
-        <v>0.99739695589924426</v>
+        <v>0.99194406726666817</v>
       </c>
       <c r="R12">
-        <v>2.2251825763311716e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="S12">
-        <v>1.3393776025912093e-09</v>
+        <v>4.0383946974317193e-12</v>
       </c>
       <c r="T12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="U12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="V12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="W12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="X12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="Y12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="Z12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AA12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AB12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AC12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AD12">
-        <v>5.2597625711344138e-06</v>
+        <v>4.8745454509703872e-06</v>
       </c>
       <c r="AE12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AF12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AG12">
-        <v>3.2996824248913514e-05</v>
+        <v>3.809626190814984e-07</v>
       </c>
       <c r="AH12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AI12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AJ12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AK12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AL12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AM12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AN12">
-        <v>3.0084777257927467e-06</v>
+        <v>3.9090121110121443e-05</v>
       </c>
       <c r="AO12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AP12">
-        <v>2.2251825763311719e-14</v>
+        <v>2.2202572253181446e-14</v>
       </c>
       <c r="AQ12">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.1844318148245214e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="C13">
-        <v>3.1844318148245214e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="D13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="E13">
-        <v>3.1844318148245012e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="F13">
-        <v>3.1844318148245126e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="G13">
-        <v>3.1844318148245018e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="H13">
-        <v>0.00096897658441932476</v>
+        <v>0.0029719312845716732</v>
       </c>
       <c r="I13">
-        <v>3.1844318148245107e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="J13">
-        <v>0.000153507378672581</v>
+        <v>0.0033983075515498042</v>
       </c>
       <c r="K13">
-        <v>3.1844318148245214e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="L13">
-        <v>3.1844318148245277e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="M13">
-        <v>3.1844318148245214e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="N13">
-        <v>2.8977296666533833e-08</v>
+        <v>4.3022208925842393e-09</v>
       </c>
       <c r="O13">
-        <v>2.4841525711990255e-13</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="P13">
-        <v>3.1844318148245069e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="Q13">
-        <v>0.99884029881278635</v>
+        <v>0.99359026226045855</v>
       </c>
       <c r="R13">
-        <v>3.1844318148245069e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="S13">
-        <v>1.198355290139049e-08</v>
+        <v>1.4249088378274069e-11</v>
       </c>
       <c r="T13">
-        <v>3.1844318148245126e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="U13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="V13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="W13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="X13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="Y13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="Z13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AA13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AB13">
-        <v>3.1844318148245252e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AC13">
-        <v>3.1844318148245069e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AD13">
-        <v>9.3945199583633409e-06</v>
+        <v>5.3856387318286859e-06</v>
       </c>
       <c r="AE13">
-        <v>3.1844318148245069e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AF13">
-        <v>3.1844318148245126e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AG13">
-        <v>2.4760172686775981e-05</v>
+        <v>3.1149635384160077e-07</v>
       </c>
       <c r="AH13">
-        <v>3.1844318148245126e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AI13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AJ13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AK13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AL13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AM13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AN13">
-        <v>3.0215693590172091e-06</v>
+        <v>3.3797451131738921e-05</v>
       </c>
       <c r="AO13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AP13">
-        <v>3.184431814824558e-14</v>
+        <v>2.2202329374219397e-14</v>
       </c>
       <c r="AQ13">
         <v>16</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="C14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="D14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="E14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="F14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="G14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="H14">
-        <v>0.0061970688020933319</v>
+        <v>0.0010078622985509188</v>
       </c>
       <c r="I14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="J14">
-        <v>0.0014680586648033688</v>
+        <v>0.021222767334562787</v>
       </c>
       <c r="K14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="L14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="M14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="N14">
-        <v>3.8118198737917132e-07</v>
+        <v>9.4372619427688751e-10</v>
       </c>
       <c r="O14">
-        <v>1.5762466408723283e-13</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="P14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="Q14">
-        <v>0.99229890547246813</v>
+        <v>0.96845276317829865</v>
       </c>
       <c r="R14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="S14">
-        <v>2.2820591002653095e-10</v>
+        <v>4.1389796255120187e-12</v>
       </c>
       <c r="T14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="U14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="V14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="W14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="X14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="Y14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="Z14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AA14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AB14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AC14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AD14">
-        <v>1.019930430802111e-05</v>
+        <v>4.8721551376628904e-06</v>
       </c>
       <c r="AE14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AF14">
-        <v>2.2202147007654549e-14</v>
+        <v>0.0091212725069760459</v>
       </c>
       <c r="AG14">
-        <v>4.4544434715428896e-06</v>
+        <v>2.5023035165541991e-08</v>
       </c>
       <c r="AH14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AI14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AJ14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AK14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AL14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AM14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AN14">
-        <v>2.0931901794483926e-05</v>
+        <v>0.00019043655486304924</v>
       </c>
       <c r="AO14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AP14">
-        <v>2.2202147007654549e-14</v>
+        <v>2.2204015476659874e-14</v>
       </c>
       <c r="AQ14">
         <v>16</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="C15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="D15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="E15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="F15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="G15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="H15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="I15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="J15">
-        <v>1.1755900208079199e-11</v>
+        <v>7.7927105335187645e-11</v>
       </c>
       <c r="K15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="L15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="M15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="N15">
-        <v>0.00032918237309706596</v>
+        <v>0.0025622592168731235</v>
       </c>
       <c r="O15">
-        <v>3.9250666730792997e-05</v>
+        <v>6.3431926287215508e-09</v>
       </c>
       <c r="P15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="Q15">
-        <v>2.2510476907588795e-05</v>
+        <v>0.045115584077397984</v>
       </c>
       <c r="R15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="S15">
-        <v>0.99960854561069368</v>
+        <v>0.95228583453137383</v>
       </c>
       <c r="T15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="U15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="V15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="W15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="X15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="Y15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="Z15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AA15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AB15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AC15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AD15">
-        <v>1.3364352030130649e-07</v>
+        <v>5.7820253012037365e-07</v>
       </c>
       <c r="AE15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AF15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AG15">
-        <v>3.7720848173752283e-07</v>
+        <v>3.573738155618434e-05</v>
       </c>
       <c r="AH15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AI15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AJ15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AK15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AL15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AM15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AN15">
-        <v>8.0800421100345793e-12</v>
+        <v>1.6841635631608276e-10</v>
       </c>
       <c r="AO15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AP15">
-        <v>2.2204248739382238e-14</v>
+        <v>2.2201480482889125e-14</v>
       </c>
       <c r="AQ15">
         <v>18</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="C16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="D16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="E16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="F16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="G16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="H16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="I16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="J16">
-        <v>1.503774454988942e-13</v>
+        <v>1.3971898730763174e-11</v>
       </c>
       <c r="K16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="L16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="M16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="N16">
-        <v>9.6396036183796844e-10</v>
+        <v>6.6371225808781825e-07</v>
       </c>
       <c r="O16">
-        <v>1.2636978632332038e-13</v>
+        <v>2.8854902007346419e-11</v>
       </c>
       <c r="P16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="Q16">
-        <v>9.8103071154495618e-10</v>
+        <v>0.00023258342007770097</v>
       </c>
       <c r="R16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="S16">
-        <v>1.9335536986806171e-10</v>
+        <v>4.2940097342753557e-08</v>
       </c>
       <c r="T16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="U16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="V16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="W16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="X16">
-        <v>0.9999769234993674</v>
+        <v>0.9995296197302036</v>
       </c>
       <c r="Y16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="Z16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AA16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AB16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AC16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AD16">
-        <v>2.1079270964225181e-05</v>
+        <v>4.2868930026936997e-05</v>
       </c>
       <c r="AE16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AF16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AG16">
-        <v>1.9950903125152715e-06</v>
+        <v>0.00019422122377685518</v>
       </c>
       <c r="AH16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AI16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AJ16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AK16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AL16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AM16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AN16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AO16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AP16">
-        <v>2.2204447995769891e-14</v>
+        <v>2.2204206104355673e-14</v>
       </c>
       <c r="AQ16">
         <v>23</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="C17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="D17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="E17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="F17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="G17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="H17">
-        <v>7.3041960715870351e-09</v>
+        <v>2.6242835517203222e-05</v>
       </c>
       <c r="I17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="J17">
-        <v>6.2190363393338512e-08</v>
+        <v>2.8215721815881318e-06</v>
       </c>
       <c r="K17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="L17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="M17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="N17">
-        <v>1.4115768033415603e-10</v>
+        <v>3.3664628379548643e-13</v>
       </c>
       <c r="O17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="P17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="Q17">
-        <v>0.004525431099271302</v>
+        <v>0.038421470127541574</v>
       </c>
       <c r="R17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="S17">
-        <v>2.7306988461160971e-05</v>
+        <v>1.2963801933186057e-08</v>
       </c>
       <c r="T17">
-        <v>0.99537513224556307</v>
+        <v>0.96154876401644329</v>
       </c>
       <c r="U17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="V17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="W17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="X17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="Y17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="Z17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AA17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AB17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AC17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AD17">
-        <v>4.3076574519027659e-07</v>
+        <v>5.3183433481714789e-07</v>
       </c>
       <c r="AE17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AF17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AG17">
-        <v>7.1595044409068919e-05</v>
+        <v>1.1337978102217379e-07</v>
       </c>
       <c r="AH17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AI17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AJ17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AK17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AL17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AM17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AN17">
-        <v>3.4220122498794737e-08</v>
+        <v>4.3269351499966754e-08</v>
       </c>
       <c r="AO17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AP17">
-        <v>2.2202063738849708e-14</v>
+        <v>2.2202138856628439e-14</v>
       </c>
       <c r="AQ17">
         <v>19</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="C18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="D18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="E18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="F18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="G18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="H18">
-        <v>1.7224118127591993e-07</v>
+        <v>2.3866089226601798e-09</v>
       </c>
       <c r="I18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="J18">
-        <v>0.00013951151608193924</v>
+        <v>1.6523524902768268e-05</v>
       </c>
       <c r="K18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="L18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="M18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="N18">
-        <v>2.2478655774615324e-08</v>
+        <v>3.0128204462351084e-08</v>
       </c>
       <c r="O18">
-        <v>3.5825428510173935e-08</v>
+        <v>4.8944663766810114e-09</v>
       </c>
       <c r="P18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="Q18">
-        <v>6.6291203141264951e-05</v>
+        <v>1.1437421292058855e-05</v>
       </c>
       <c r="R18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="S18">
-        <v>3.2796476316758904e-06</v>
+        <v>3.8241187122945545e-06</v>
       </c>
       <c r="T18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="U18">
-        <v>0.99614753586712079</v>
+        <v>0.99697591901356597</v>
       </c>
       <c r="V18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="W18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="X18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="Y18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="Z18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AA18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AB18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AC18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AD18">
-        <v>0.0029093507683716261</v>
+        <v>0.0012817645545890716</v>
       </c>
       <c r="AE18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AF18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AG18">
-        <v>4.2310820115121389e-05</v>
+        <v>0.0015076137026595348</v>
       </c>
       <c r="AH18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AI18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AJ18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AK18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AL18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AM18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AN18">
-        <v>0.00069148963158382072</v>
+        <v>0.00020288025431021111</v>
       </c>
       <c r="AO18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AP18">
-        <v>2.220239803447224e-14</v>
+        <v>2.2202837484350239e-14</v>
       </c>
       <c r="AQ18">
         <v>20</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="C19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="D19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="E19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="F19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="G19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="H19">
-        <v>0.00039901306568508729</v>
+        <v>0.0001981972768811509</v>
       </c>
       <c r="I19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="J19">
-        <v>0.0001773671038197768</v>
+        <v>0.0023271142226123547</v>
       </c>
       <c r="K19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="L19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="M19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="N19">
-        <v>5.4004168201315548e-06</v>
+        <v>1.0765462754425021e-05</v>
       </c>
       <c r="O19">
-        <v>2.2570520198106696e-05</v>
+        <v>0.0082086946571735681</v>
       </c>
       <c r="P19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="Q19">
-        <v>0.0047729057105049899</v>
+        <v>2.5905951437065414e-05</v>
       </c>
       <c r="R19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="S19">
-        <v>3.6957774580362526e-10</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="T19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="U19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="V19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="W19">
-        <v>0.99431939356965071</v>
+        <v>0.98919493109205081</v>
       </c>
       <c r="X19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="Y19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="Z19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AA19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AB19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AC19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AD19">
-        <v>3.0643125497013666e-07</v>
+        <v>9.0517066220408011e-07</v>
       </c>
       <c r="AE19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AF19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AG19">
-        <v>0.00030291416967259351</v>
+        <v>3.3485896423612629e-05</v>
       </c>
       <c r="AH19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AI19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AJ19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AK19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AL19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AM19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AN19">
-        <v>1.2864212770996087e-07</v>
+        <v>2.6929415970760259e-10</v>
       </c>
       <c r="AO19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AP19">
-        <v>2.2202183488323843e-14</v>
+        <v>2.2202749252356689e-14</v>
       </c>
       <c r="AQ19">
         <v>22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="C20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="D20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="E20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="F20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="G20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="H20">
-        <v>0.001165494817263831</v>
+        <v>1.9914995093393173e-05</v>
       </c>
       <c r="I20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="J20">
-        <v>0.00060077087058364557</v>
+        <v>0.0004327433514765276</v>
       </c>
       <c r="K20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="L20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="M20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="N20">
-        <v>2.3127507297482151e-06</v>
+        <v>4.1511302456631156e-09</v>
       </c>
       <c r="O20">
-        <v>4.0773636003540922e-06</v>
+        <v>7.8981688034212444e-06</v>
       </c>
       <c r="P20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="Q20">
-        <v>3.637533805270769e-05</v>
+        <v>2.3063355613291949e-05</v>
       </c>
       <c r="R20">
-        <v>0.99501797118772572</v>
+        <v>0.99767060515015871</v>
       </c>
       <c r="S20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="T20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="U20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="V20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="W20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="X20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="Y20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="Z20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AA20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AB20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AC20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AD20">
-        <v>3.0433547289373412e-05</v>
+        <v>6.4633225634730127e-05</v>
       </c>
       <c r="AE20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AF20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AG20">
-        <v>0.0031425638211903654</v>
+        <v>0.0017811375029924759</v>
       </c>
       <c r="AH20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AI20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AJ20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AK20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AL20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AM20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AN20">
-        <v>3.028540407517634e-10</v>
+        <v>9.8386708443841447e-11</v>
       </c>
       <c r="AO20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AP20">
-        <v>2.2202167281554107e-14</v>
+        <v>2.2203207705113266e-14</v>
       </c>
       <c r="AQ20">
         <v>17</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="C21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="D21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="E21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="F21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="G21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="H21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="I21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="J21">
-        <v>6.7622366336082333e-12</v>
+        <v>7.6697508893105641e-12</v>
       </c>
       <c r="K21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="L21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="M21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="N21">
-        <v>4.4228763984072049e-06</v>
+        <v>2.468897513292693e-06</v>
       </c>
       <c r="O21">
-        <v>9.1289783036392277e-07</v>
+        <v>6.5733580496067268e-10</v>
       </c>
       <c r="P21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="Q21">
-        <v>1.3257237837952846e-06</v>
+        <v>0.0001943810240958297</v>
       </c>
       <c r="R21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="S21">
-        <v>8.751969449466029e-09</v>
+        <v>6.040067554199821e-08</v>
       </c>
       <c r="T21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="U21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="V21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="W21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="X21">
-        <v>0.99996153791794506</v>
+        <v>0.999566051777804</v>
       </c>
       <c r="Y21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="Z21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AA21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AB21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AC21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AD21">
-        <v>2.5218801166585237e-05</v>
+        <v>4.9931434905910757e-05</v>
       </c>
       <c r="AE21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AF21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AG21">
-        <v>6.5730234112800798e-06</v>
+        <v>0.00018710579926707548</v>
       </c>
       <c r="AH21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AI21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AJ21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AK21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AL21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AM21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AN21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AO21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AP21">
-        <v>2.2204439664893038e-14</v>
+        <v>2.2204225781820851e-14</v>
       </c>
       <c r="AQ21">
         <v>23</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="C22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="D22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="E22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="F22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="G22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="H22">
-        <v>1.1561589886683998e-08</v>
+        <v>6.2929501019247809e-10</v>
       </c>
       <c r="I22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="J22">
-        <v>3.8960798773165917e-06</v>
+        <v>1.5510750361781473e-06</v>
       </c>
       <c r="K22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="L22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="M22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="N22">
-        <v>6.2512716856671188e-07</v>
+        <v>5.767982089550019e-07</v>
       </c>
       <c r="O22">
-        <v>3.341620289994633e-09</v>
+        <v>1.8073371306200706e-09</v>
       </c>
       <c r="P22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="Q22">
-        <v>9.1006067144823544e-05</v>
+        <v>3.5308556384111331e-05</v>
       </c>
       <c r="R22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="S22">
-        <v>3.5198166001857203e-05</v>
+        <v>0.00041512026914947343</v>
       </c>
       <c r="T22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="U22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="V22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="W22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="X22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="Y22">
-        <v>0.99638130794452473</v>
+        <v>0.9946380852973058</v>
       </c>
       <c r="Z22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AA22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AB22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AC22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AD22">
-        <v>0.0006987327664573186</v>
+        <v>0.0014512483032710986</v>
       </c>
       <c r="AE22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AF22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AG22">
-        <v>8.0930399632957683e-07</v>
+        <v>4.2501919024810183e-07</v>
       </c>
       <c r="AH22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AI22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AJ22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AK22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AL22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AM22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AN22">
-        <v>0.002788409640930657</v>
+        <v>0.0034576822441337736</v>
       </c>
       <c r="AO22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AP22">
-        <v>2.2202521821297717e-14</v>
+        <v>2.2202232394179331e-14</v>
       </c>
       <c r="AQ22">
         <v>24</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="C23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="D23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="E23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="F23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="G23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="H23">
-        <v>0.00039072838131251771</v>
+        <v>9.5581126898488352e-06</v>
       </c>
       <c r="I23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="J23">
-        <v>0.0030798141108114912</v>
+        <v>0.004763832908370489</v>
       </c>
       <c r="K23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="L23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="M23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="N23">
-        <v>3.6641839146826411e-06</v>
+        <v>1.1243404471571964e-05</v>
       </c>
       <c r="O23">
-        <v>0.99612079858813829</v>
+        <v>0.99504114803661603</v>
       </c>
       <c r="P23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="Q23">
-        <v>2.5717587262930604e-05</v>
+        <v>2.1455623406815172e-06</v>
       </c>
       <c r="R23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="S23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="T23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="U23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="V23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="W23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="X23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="Y23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="Z23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AA23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AB23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AC23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AD23">
-        <v>0.0001599762234601947</v>
+        <v>8.0382042489474142e-05</v>
       </c>
       <c r="AE23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AF23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AG23">
-        <v>0.00021930086766070372</v>
+        <v>9.1689930074160343e-05</v>
       </c>
       <c r="AH23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AI23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AJ23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AK23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AL23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AM23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AN23">
-        <v>5.6706343873609685e-11</v>
+        <v>2.2148205370655956e-12</v>
       </c>
       <c r="AO23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AP23">
-        <v>2.2202383937739613e-14</v>
+        <v>2.2202075279117263e-14</v>
       </c>
       <c r="AQ23">
         <v>14</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="C24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="D24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="E24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="F24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="G24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="H24">
-        <v>0.00055905665043912514</v>
+        <v>3.1414784747302283e-06</v>
       </c>
       <c r="I24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="J24">
-        <v>0.00048304787320938659</v>
+        <v>0.00022055615141770171</v>
       </c>
       <c r="K24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="L24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="M24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="N24">
-        <v>2.1501785753015838e-07</v>
+        <v>2.1893638550314288e-06</v>
       </c>
       <c r="O24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="P24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="Q24">
-        <v>0.0015295830841940464</v>
+        <v>0.0011503172609117103</v>
       </c>
       <c r="R24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="S24">
-        <v>0.00012541746420294663</v>
+        <v>0.0085013570292377608</v>
       </c>
       <c r="T24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="U24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="V24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="W24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="X24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="Y24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="Z24">
-        <v>0.99694232109111547</v>
+        <v>0.96943114574896083</v>
       </c>
       <c r="AA24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AB24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AC24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AD24">
-        <v>1.1419118140893644e-06</v>
+        <v>1.4191672269733598e-07</v>
       </c>
       <c r="AE24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AF24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AG24">
-        <v>0.00015810000504390908</v>
+        <v>0.00047733156054908577</v>
       </c>
       <c r="AH24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AI24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AJ24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AK24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AL24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AM24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AN24">
-        <v>0.0002011169014130721</v>
+        <v>0.020213819489159745</v>
       </c>
       <c r="AO24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AP24">
-        <v>2.2202819622068106e-14</v>
+        <v>2.2203993382826886e-14</v>
       </c>
       <c r="AQ24">
         <v>25</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="C25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="D25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="E25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="F25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="G25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="H25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="I25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="J25">
-        <v>1.2874331834818266e-11</v>
+        <v>7.053216809607894e-11</v>
       </c>
       <c r="K25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="L25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="M25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="N25">
-        <v>1.187311570768929e-06</v>
+        <v>1.0784819080509051e-06</v>
       </c>
       <c r="O25">
-        <v>2.9516131147823806e-09</v>
+        <v>4.9163897097557278e-12</v>
       </c>
       <c r="P25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="Q25">
-        <v>4.9268271019701008e-06</v>
+        <v>0.0007027711085293521</v>
       </c>
       <c r="R25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="S25">
-        <v>5.739995836893521e-08</v>
+        <v>2.266286314039471e-08</v>
       </c>
       <c r="T25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="U25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="V25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="W25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="X25">
-        <v>0.99988852052444555</v>
+        <v>0.99904628959370911</v>
       </c>
       <c r="Y25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="Z25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AA25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AB25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AC25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AD25">
-        <v>7.9057410807472579e-06</v>
+        <v>6.1269949409751119e-05</v>
       </c>
       <c r="AE25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AF25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AG25">
-        <v>9.7399230622380886e-05</v>
+        <v>0.0001885681273994056</v>
       </c>
       <c r="AH25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AI25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AJ25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AK25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AL25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AM25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AN25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AO25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AP25">
-        <v>2.2204400138352615e-14</v>
+        <v>2.2203945455890453e-14</v>
       </c>
       <c r="AQ25">
         <v>23</v>
